--- a/tests/data/actual_cei.xlsx
+++ b/tests/data/actual_cei.xlsx
@@ -101,6 +101,29 @@
   </si>
   <si>
     <t>BIEF39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares Core MSCI EAFE ETFabc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares Core 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iSharesCoreS&amp;PTotal US Stock Market ETF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iSharesCoreS&amp;PTotalUSStockMarketETF
+</t>
+  </si>
+  <si>
+    <t>iShares Core S&amp;P Total US Stock Market ETF</t>
   </si>
 </sst>
 </file>
@@ -384,7 +407,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="topLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
@@ -417,7 +440,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -443,7 +466,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
